--- a/data/20151101_GEP00002/SLX-13774.vardict.variants.xlsx
+++ b/data/20151101_GEP00002/SLX-13774.vardict.variants.xlsx
@@ -318,7 +318,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -415,7 +415,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC3" t="n">
@@ -512,7 +512,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -806,25 +806,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>intron</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LRP2BP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c.803+330G&gt;A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8.8504178E7</v>
+        <v>1.8629368E8</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -843,10 +853,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>0.018</v>
+        <v>0.003</v>
       </c>
       <c r="P7" t="n">
-        <v>109.0</v>
+        <v>53017.0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -854,29 +864,39 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>35.0</v>
+        <v>241.0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr4_186293623</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>79.0</v>
+        <v>36.0</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>GCACA</t>
+          <t>TTCAT</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>A/G</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>ATACA</t>
+          <t>CAGTT</t>
         </is>
       </c>
     </row>
@@ -893,35 +913,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>c.803+330G&gt;A</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.8629368E8</v>
+        <v>8.8504178E7</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -940,10 +950,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
       <c r="P8" t="n">
-        <v>53017.0</v>
+        <v>109.0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -951,39 +961,29 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>241.0</v>
+        <v>35.0</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>36.0</v>
+        <v>79.0</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>TTCAT</t>
+          <t>GCACA</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>A/G</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>CAGTT</t>
+          <t>ATACA</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC14" t="n">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC17" t="n">
@@ -1973,26 +1973,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>n.960C&gt;T</t>
+          <t>c.803+281C&gt;T</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3.3676538E7</v>
+        <v>1.86293729E8</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="P18" t="n">
-        <v>1140.0</v>
+        <v>14399.0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2031,29 +2031,29 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>103.0</v>
+        <v>227.0</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>TGCAG</t>
+          <t>CCTTG</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>n.951A&gt;G</t>
+          <t>n.960C&gt;T</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3.3676547E7</v>
+        <v>3.3676538E7</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="P19" t="n">
         <v>1140.0</v>
@@ -2138,11 +2138,11 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>118.0</v>
+        <v>103.0</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2156,21 +2156,21 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>TCCCA</t>
+          <t>TGCAG</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>T/C</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>AGCAA</t>
+          <t>AAATC</t>
         </is>
       </c>
     </row>
@@ -2187,35 +2187,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LRP2BP</t>
+          <t>PTENP1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>c.803+281C&gt;T</t>
+          <t>n.951A&gt;G</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1.86293729E8</v>
+        <v>3.3676547E7</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="P20" t="n">
-        <v>14399.0</v>
+        <v>1140.0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2245,39 +2245,39 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>227.0</v>
+        <v>118.0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>CCTTG</t>
+          <t>TCCCA</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>T/C</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>AAATC</t>
+          <t>AGCAA</t>
         </is>
       </c>
     </row>
@@ -2294,35 +2294,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>n.925C&gt;T</t>
+          <t>c.803+287G&gt;A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3.3676573E7</v>
+        <v>1.86293723E8</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
       <c r="P21" t="n">
-        <v>6468.0</v>
+        <v>43968.0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2352,39 +2352,39 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>222.0</v>
+        <v>268.0</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>50.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>TATAG</t>
+          <t>AAGTT</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>TCAAG</t>
+          <t>CCTTG</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PTENP1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>n.925C&gt;T</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2410,16 +2420,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8.8504188E7</v>
+        <v>3.3676573E7</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2438,10 +2448,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="P22" t="n">
-        <v>765.0</v>
+        <v>6468.0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2449,29 +2459,39 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>57.0</v>
+        <v>222.0</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_33676504</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>76.0</v>
+        <v>50.0</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>ATGCC</t>
+          <t>TATAG</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>CCACT</t>
+          <t>TCAAG</t>
         </is>
       </c>
     </row>
@@ -2488,26 +2508,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>c.803+287G&gt;A</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.86293723E8</v>
+        <v>8.8504188E7</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2535,10 +2545,10 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="P23" t="n">
-        <v>43968.0</v>
+        <v>765.0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2546,29 +2556,19 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>268.0</v>
+        <v>57.0</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>9.0</v>
+        <v>76.0</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>AAGTT</t>
+          <t>ATGCC</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>CCTTG</t>
+          <t>CCACT</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC27" t="n">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3359,35 +3359,35 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>n.948G&gt;A</t>
+          <t>c.803+282C&gt;T</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3.367655E7</v>
+        <v>1.86293728E8</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>0.022</v>
+        <v>0.032</v>
       </c>
       <c r="P31" t="n">
-        <v>459.0</v>
+        <v>7310.0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3417,39 +3417,39 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>111.0</v>
+        <v>278.0</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>27.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>CATAG</t>
+          <t>CCCTT</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>AATAA</t>
+          <t>GAAAT</t>
         </is>
       </c>
     </row>
@@ -3466,35 +3466,35 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LRP2BP</t>
+          <t>PTENP1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>c.803+282C&gt;T</t>
+          <t>n.948G&gt;A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.86293728E8</v>
+        <v>3.367655E7</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -3513,10 +3513,10 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>0.032</v>
+        <v>0.022</v>
       </c>
       <c r="P32" t="n">
-        <v>7310.0</v>
+        <v>459.0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3524,39 +3524,39 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>278.0</v>
+        <v>111.0</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>CCCTT</t>
+          <t>CATAG</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>GAAAT</t>
+          <t>AATAA</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -3680,35 +3680,35 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>n.963G&gt;A</t>
+          <t>c.803+294C&gt;T</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3.3676535E7</v>
+        <v>1.86293716E8</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>0.009</v>
+        <v>0.005</v>
       </c>
       <c r="P34" t="n">
-        <v>6743.0</v>
+        <v>65872.0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3738,39 +3738,39 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>212.0</v>
+        <v>282.0</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>TTCTG</t>
+          <t>GACTA</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>AGGAA</t>
+          <t>TAAGT</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>n.906G&gt;A</t>
+          <t>n.963G&gt;A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3.3676592E7</v>
+        <v>3.3676535E7</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3834,10 +3834,10 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>0.003</v>
+        <v>0.009</v>
       </c>
       <c r="P35" t="n">
-        <v>6759.0</v>
+        <v>6743.0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3845,11 +3845,11 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>135.0</v>
+        <v>212.0</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -3862,17 +3862,12 @@
           <t>1 of 1</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>rs780472116</t>
-        </is>
-      </c>
       <c r="AC35" t="n">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>GAATC</t>
+          <t>TTCTG</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -3882,7 +3877,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>ATCCT</t>
+          <t>AGGAA</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3904,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>n.877G&gt;A</t>
+          <t>n.906G&gt;A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3918,7 +3913,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3.3676621E7</v>
+        <v>3.3676592E7</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3946,10 +3941,10 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="P36" t="n">
-        <v>6758.0</v>
+        <v>6759.0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3957,11 +3952,11 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>152.0</v>
+        <v>135.0</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -3974,12 +3969,17 @@
           <t>1 of 1</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>rs780472116</t>
+        </is>
+      </c>
       <c r="AC36" t="n">
-        <v>17.0</v>
+        <v>46.0</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>TTCTG</t>
+          <t>GAATC</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>TAACG</t>
+          <t>ATCCT</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PTENP1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>n.877G&gt;A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4015,11 +4025,11 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>8.8504237E7</v>
+        <v>3.3676621E7</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4043,10 +4053,10 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
       <c r="P37" t="n">
-        <v>177.0</v>
+        <v>6758.0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4054,29 +4064,39 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>41.0</v>
+        <v>152.0</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_33676504</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>AAAAA</t>
+          <t>TTCTG</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>G/T</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>CTGGA</t>
+          <t>TAACG</t>
         </is>
       </c>
     </row>
@@ -4093,26 +4113,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>c.803+294C&gt;T</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.86293716E8</v>
+        <v>8.8504237E7</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -4121,7 +4131,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4140,10 +4150,10 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
       <c r="P38" t="n">
-        <v>65872.0</v>
+        <v>177.0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -4151,39 +4161,29 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>282.0</v>
+        <v>41.0</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>GACTA</t>
+          <t>AAAAA</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>G/T</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>TAAGT</t>
+          <t>CTGGA</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC47" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC48" t="n">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -5591,35 +5591,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>n.954G&gt;A</t>
+          <t>c.803+290C&gt;T</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3.3676544E7</v>
+        <v>1.8629372E8</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L52" s="1" t="inlineStr">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>0.009</v>
+        <v>0.041</v>
       </c>
       <c r="P52" t="n">
-        <v>1981.0</v>
+        <v>28501.0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5649,39 +5649,39 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>149.0</v>
+        <v>329.0</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>AAATC</t>
+          <t>AGTAA</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>CATAG</t>
+          <t>TTCCC</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>n.914C&gt;T</t>
+          <t>n.954G&gt;A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5717,16 +5717,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3.3676584E7</v>
+        <v>3.3676544E7</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L53" s="1" t="inlineStr">
@@ -5745,10 +5745,10 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>0.021</v>
+        <v>0.009</v>
       </c>
       <c r="P53" t="n">
-        <v>2251.0</v>
+        <v>1981.0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5756,11 +5756,11 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>183.0</v>
+        <v>149.0</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -5773,27 +5773,22 @@
           <t>1 of 1</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>rs750985927</t>
-        </is>
-      </c>
       <c r="AC53" t="n">
-        <v>54.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>TCTAA</t>
+          <t>AAATC</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>TCGAA</t>
+          <t>CATAG</t>
         </is>
       </c>
     </row>
@@ -5820,7 +5815,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>n.907G&gt;A</t>
+          <t>n.914C&gt;T</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5829,16 +5824,16 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3.3676591E7</v>
+        <v>3.3676584E7</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L54" s="1" t="inlineStr">
@@ -5857,10 +5852,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>0.014</v>
+        <v>0.021</v>
       </c>
       <c r="P54" t="n">
-        <v>2253.0</v>
+        <v>2251.0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5868,11 +5863,11 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>173.0</v>
+        <v>183.0</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -5885,22 +5880,27 @@
           <t>1 of 1</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>rs750985927</t>
+        </is>
+      </c>
       <c r="AC54" t="n">
-        <v>47.0</v>
+        <v>54.0</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>CGAAT</t>
+          <t>TCTAA</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>CATCC</t>
+          <t>TCGAA</t>
         </is>
       </c>
     </row>
@@ -5917,35 +5917,35 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LRP2BP</t>
+          <t>PTENP1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>c.803+290C&gt;T</t>
+          <t>n.907G&gt;A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.8629372E8</v>
+        <v>3.3676591E7</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L55" s="1" t="inlineStr">
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>0.041</v>
+        <v>0.014</v>
       </c>
       <c r="P55" t="n">
-        <v>28501.0</v>
+        <v>2253.0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5975,39 +5975,39 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>329.0</v>
+        <v>173.0</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>12.0</v>
+        <v>47.0</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>AGTAA</t>
+          <t>CGAAT</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>TTCCC</t>
+          <t>CATCC</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC63" t="n">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -7654,25 +7654,35 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>intron</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>LRP2BP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c.803+309C&gt;T</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8.850419E7</v>
+        <v>1.86293701E8</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L71" s="1" t="inlineStr">
@@ -7691,10 +7701,10 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="P71" t="n">
-        <v>1396.0</v>
+        <v>65451.0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -7702,29 +7712,39 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>113.0</v>
+        <v>329.0</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr4_186293623</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>74.0</v>
+        <v>31.0</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>GCCCC</t>
+          <t>TTACT</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>ACTTA</t>
+          <t>CTATG</t>
         </is>
       </c>
     </row>
@@ -7741,35 +7761,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>c.803+309C&gt;T</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.86293701E8</v>
+        <v>8.850419E7</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L72" s="1" t="inlineStr">
@@ -7788,10 +7798,10 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="P72" t="n">
-        <v>65451.0</v>
+        <v>1396.0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7799,39 +7809,29 @@
         </is>
       </c>
       <c r="R72" t="n">
-        <v>329.0</v>
+        <v>113.0</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>31.0</v>
+        <v>74.0</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>TTACT</t>
+          <t>GCCCC</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>CTATG</t>
+          <t>ACTTA</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC73" t="n">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -8281,16 +8281,26 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>intron</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>LRP2BP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c.803+316G&gt;A</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>8.8504192E7</v>
+        <v>1.86293694E8</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -8318,10 +8328,10 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="P77" t="n">
-        <v>831.0</v>
+        <v>97713.0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -8329,19 +8339,29 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>69.0</v>
+        <v>310.0</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr4_186293623</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC77" t="n">
-        <v>72.0</v>
+        <v>38.0</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>CCCCA</t>
+          <t>TCAAA</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
@@ -8351,7 +8371,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>TTAGA</t>
+          <t>ATTAC</t>
         </is>
       </c>
     </row>
@@ -8368,26 +8388,16 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>c.803+316G&gt;A</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1.86293694E8</v>
+        <v>8.8504192E7</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -8415,10 +8425,10 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="P78" t="n">
-        <v>97713.0</v>
+        <v>831.0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -8426,29 +8436,19 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>310.0</v>
+        <v>69.0</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC78" t="n">
-        <v>38.0</v>
+        <v>72.0</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>TCAAA</t>
+          <t>CCCCA</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>ATTAC</t>
+          <t>TTAGA</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -8582,26 +8582,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>n.889G&gt;A</t>
+          <t>c.803+347G&gt;A</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3.3676609E7</v>
+        <v>1.86293663E8</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>0.002</v>
       </c>
       <c r="P80" t="n">
-        <v>20909.0</v>
+        <v>115298.0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -8640,29 +8640,29 @@
         </is>
       </c>
       <c r="R80" t="n">
-        <v>167.0</v>
+        <v>277.0</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC80" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>ATCTC</t>
+          <t>GCATT</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>TTTTG</t>
+          <t>TTATC</t>
         </is>
       </c>
     </row>
@@ -8689,26 +8689,26 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LRP2BP</t>
+          <t>PTENP1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>c.803+347G&gt;A</t>
+          <t>n.889G&gt;A</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1.86293663E8</v>
+        <v>3.3676609E7</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>0.002</v>
       </c>
       <c r="P81" t="n">
-        <v>115298.0</v>
+        <v>20909.0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -8747,29 +8747,29 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>277.0</v>
+        <v>167.0</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>GCATT</t>
+          <t>ATCTC</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>TTATC</t>
+          <t>TTTTG</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -9122,16 +9122,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>intron</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LRP2BP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c.803+282C&gt;T</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8.8504133E7</v>
+        <v>1.86293728E8</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -9159,10 +9169,10 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="P85" t="n">
-        <v>3247.0</v>
+        <v>101992.0</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -9170,19 +9180,29 @@
         </is>
       </c>
       <c r="R85" t="n">
-        <v>126.0</v>
+        <v>277.0</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr4_186293623</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC85" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>AAGTA</t>
+          <t>CCCTT</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
@@ -9192,7 +9212,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>GTATA</t>
+          <t>GAAAT</t>
         </is>
       </c>
     </row>
@@ -9209,26 +9229,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>c.803+282C&gt;T</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1.86293728E8</v>
+        <v>8.8504133E7</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -9256,10 +9266,10 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="P86" t="n">
-        <v>101992.0</v>
+        <v>3247.0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -9267,29 +9277,19 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>277.0</v>
+        <v>126.0</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>CCCTT</t>
+          <t>AAGTA</t>
         </is>
       </c>
       <c r="AF86" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t>GAAAT</t>
+          <t>GTATA</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -9555,37 +9555,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>n.951A&gt;G</t>
+          <t>c.803+330G&gt;A</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3.3676547E7</v>
+        <v>1.8629368E8</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="L89" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
@@ -9602,10 +9602,10 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="P89" t="n">
-        <v>2902.0</v>
+        <v>18967.0</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -9613,39 +9613,39 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>192.0</v>
+        <v>284.0</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC89" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t>TCCCA</t>
+          <t>TTCAT</t>
         </is>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>T/C</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
         <is>
-          <t>AGCAA</t>
+          <t>CAGTT</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>PTENP1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>n.951A&gt;G</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -9671,16 +9681,16 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>8.8504129E7</v>
+        <v>3.3676547E7</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L90" s="1" t="inlineStr">
@@ -9699,10 +9709,10 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="P90" t="n">
-        <v>521.0</v>
+        <v>2902.0</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -9710,29 +9720,39 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>86.0</v>
+        <v>192.0</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_33676504</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC90" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
-          <t>ATGAA</t>
+          <t>TCCCA</t>
         </is>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>A/G</t>
+          <t>T/C</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
         <is>
-          <t>GTAGG</t>
+          <t>AGCAA</t>
         </is>
       </c>
     </row>
@@ -9758,18 +9778,18 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>8.8504154E7</v>
+        <v>8.8504129E7</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="L91" s="1" t="inlineStr">
         <is>
           <t>IGV</t>
@@ -9786,10 +9806,10 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="P91" t="n">
-        <v>327.0</v>
+        <v>521.0</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -9797,29 +9817,29 @@
         </is>
       </c>
       <c r="R91" t="n">
-        <v>60.0</v>
+        <v>86.0</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC91" t="n">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t>TCTTA</t>
+          <t>ATGAA</t>
         </is>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>A/G</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
         <is>
-          <t>TCTAT</t>
+          <t>GTAGG</t>
         </is>
       </c>
     </row>
@@ -9836,35 +9856,25 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>c.803+330G&gt;A</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1.8629368E8</v>
+        <v>8.8504154E7</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L92" s="1" t="inlineStr">
@@ -9883,10 +9893,10 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="P92" t="n">
-        <v>18967.0</v>
+        <v>327.0</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -9894,39 +9904,29 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>284.0</v>
+        <v>60.0</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC92" t="n">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>TTCAT</t>
+          <t>TCTTA</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>CAGTT</t>
+          <t>TCTAT</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC93" t="n">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC94" t="n">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
@@ -10702,16 +10702,26 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>intron</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>LRP2BP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c.803+306T&gt;C</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>8.8504129E7</v>
+        <v>1.86293704E8</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -10739,10 +10749,10 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="P100" t="n">
-        <v>952.0</v>
+        <v>20321.0</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -10750,19 +10760,29 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>90.0</v>
+        <v>244.0</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr4_186293623</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
-          <t>ATGAA</t>
+          <t>CTGCT</t>
         </is>
       </c>
       <c r="AF100" t="inlineStr">
@@ -10772,7 +10792,7 @@
       </c>
       <c r="AG100" t="inlineStr">
         <is>
-          <t>GTAGG</t>
+          <t>TGGTT</t>
         </is>
       </c>
     </row>
@@ -10789,26 +10809,16 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>c.803+306T&gt;C</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1.86293704E8</v>
+        <v>8.8504129E7</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -10836,10 +10846,10 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="P101" t="n">
-        <v>20321.0</v>
+        <v>952.0</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -10847,29 +10857,19 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>244.0</v>
+        <v>90.0</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC101" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="AE101" t="inlineStr">
         <is>
-          <t>CTGCT</t>
+          <t>ATGAA</t>
         </is>
       </c>
       <c r="AF101" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="AG101" t="inlineStr">
         <is>
-          <t>TGGTT</t>
+          <t>GTAGG</t>
         </is>
       </c>
     </row>
@@ -10896,26 +10896,26 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>n.970G&gt;A</t>
+          <t>c.803+342G&gt;A</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3.3676528E7</v>
+        <v>1.86293668E8</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -10943,10 +10943,10 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="P102" t="n">
-        <v>15919.0</v>
+        <v>89271.0</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -10954,29 +10954,29 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>216.0</v>
+        <v>280.0</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC102" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>CAAGT</t>
+          <t>CTTAT</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>TTTCT</t>
+          <t>AATAC</t>
         </is>
       </c>
     </row>
@@ -11003,16 +11003,26 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>intron</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>LRP2BP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c.803+327C&gt;T</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>8.8504106E7</v>
+        <v>1.86293683E8</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -11040,10 +11050,10 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="P103" t="n">
-        <v>9098.0</v>
+        <v>89273.0</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -11051,19 +11061,29 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>190.0</v>
+        <v>355.0</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr4_186293623</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC103" t="n">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>ATTAA</t>
+          <t>ATCCA</t>
         </is>
       </c>
       <c r="AF103" t="inlineStr">
@@ -11073,7 +11093,7 @@
       </c>
       <c r="AG103" t="inlineStr">
         <is>
-          <t>ATCAC</t>
+          <t>TTTAT</t>
         </is>
       </c>
     </row>
@@ -11100,7 +11120,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>c.803+342G&gt;A</t>
+          <t>c.803+303C&gt;T</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -11109,16 +11129,16 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1.86293668E8</v>
+        <v>1.86293707E8</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L104" s="1" t="inlineStr">
@@ -11137,10 +11157,10 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="P104" t="n">
-        <v>89271.0</v>
+        <v>89282.0</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -11148,11 +11168,11 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>280.0</v>
+        <v>299.0</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
@@ -11166,21 +11186,21 @@
         </is>
       </c>
       <c r="AC104" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
-          <t>CTTAT</t>
+          <t>CTATG</t>
         </is>
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG104" t="inlineStr">
         <is>
-          <t>AATAC</t>
+          <t>TTTGA</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11227,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>c.803+327C&gt;T</t>
+          <t>c.803+294C&gt;T</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -11216,7 +11236,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1.86293683E8</v>
+        <v>1.86293716E8</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -11244,10 +11264,10 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="P105" t="n">
-        <v>89273.0</v>
+        <v>89288.0</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -11255,11 +11275,11 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>355.0</v>
+        <v>318.0</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
@@ -11273,11 +11293,11 @@
         </is>
       </c>
       <c r="AC105" t="n">
-        <v>39.0</v>
+        <v>16.0</v>
       </c>
       <c r="AE105" t="inlineStr">
         <is>
-          <t>ATCCA</t>
+          <t>GACTA</t>
         </is>
       </c>
       <c r="AF105" t="inlineStr">
@@ -11287,7 +11307,7 @@
       </c>
       <c r="AG105" t="inlineStr">
         <is>
-          <t>TTTAT</t>
+          <t>TAAGT</t>
         </is>
       </c>
     </row>
@@ -11304,35 +11324,35 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LRP2BP</t>
+          <t>PTENP1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>c.803+303C&gt;T</t>
+          <t>n.970G&gt;A</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1.86293707E8</v>
+        <v>3.3676528E7</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L106" s="1" t="inlineStr">
@@ -11354,7 +11374,7 @@
         <v>0.005</v>
       </c>
       <c r="P106" t="n">
-        <v>89282.0</v>
+        <v>15919.0</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -11362,39 +11382,39 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>299.0</v>
+        <v>216.0</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC106" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
-          <t>CTATG</t>
+          <t>CAAGT</t>
         </is>
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG106" t="inlineStr">
         <is>
-          <t>TTTGA</t>
+          <t>TTTCT</t>
         </is>
       </c>
     </row>
@@ -11411,26 +11431,16 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>c.803+294C&gt;T</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1.86293716E8</v>
+        <v>8.8504106E7</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -11458,10 +11468,10 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="P107" t="n">
-        <v>89288.0</v>
+        <v>9098.0</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -11469,29 +11479,19 @@
         </is>
       </c>
       <c r="R107" t="n">
-        <v>318.0</v>
+        <v>190.0</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC107" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>GACTA</t>
+          <t>ATTAA</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>TAAGT</t>
+          <t>ATCAC</t>
         </is>
       </c>
     </row>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC108" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC110" t="n">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC111" t="n">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
@@ -13262,7 +13262,7 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
@@ -13546,35 +13546,35 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>n.954G&gt;A</t>
+          <t>c.803+294C&gt;T</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>3.3676544E7</v>
+        <v>1.86293716E8</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L127" s="1" t="inlineStr">
@@ -13593,10 +13593,10 @@
         </is>
       </c>
       <c r="O127" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="P127" t="n">
-        <v>24332.0</v>
+        <v>101758.0</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -13604,39 +13604,39 @@
         </is>
       </c>
       <c r="R127" t="n">
-        <v>217.0</v>
+        <v>314.0</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC127" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>AAATC</t>
+          <t>GACTA</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>CATAG</t>
+          <t>TAAGT</t>
         </is>
       </c>
     </row>
@@ -13653,35 +13653,35 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>intron</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LRP2BP</t>
+          <t>PTENP1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>c.803+294C&gt;T</t>
+          <t>n.954G&gt;A</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1.86293716E8</v>
+        <v>3.3676544E7</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L128" s="1" t="inlineStr">
@@ -13700,10 +13700,10 @@
         </is>
       </c>
       <c r="O128" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="P128" t="n">
-        <v>101758.0</v>
+        <v>24332.0</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -13711,39 +13711,39 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>314.0</v>
+        <v>217.0</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W128" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC128" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE128" t="inlineStr">
         <is>
-          <t>GACTA</t>
+          <t>AAATC</t>
         </is>
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG128" t="inlineStr">
         <is>
-          <t>TAAGT</t>
+          <t>CATAG</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U130" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U131" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U134" t="inlineStr">
@@ -14432,35 +14432,35 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>non_coding_transcript_exon,non_coding_transcript</t>
+          <t>intron</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PTENP1</t>
+          <t>LRP2BP</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>n.948G&gt;A</t>
+          <t>c.803+356C&gt;T</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>chr9</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3.367655E7</v>
+        <v>1.86293654E8</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L135" s="1" t="inlineStr">
@@ -14479,10 +14479,10 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="P135" t="n">
-        <v>21572.0</v>
+        <v>100114.0</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -14490,39 +14490,39 @@
         </is>
       </c>
       <c r="R135" t="n">
-        <v>248.0</v>
+        <v>346.0</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>ENSG00000237984</t>
-        </is>
-      </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>1 of 1</t>
+          <t>ENSG00000109771</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>6 of 7</t>
         </is>
       </c>
       <c r="AC135" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE135" t="inlineStr">
         <is>
-          <t>CATAG</t>
+          <t>ATGTA</t>
         </is>
       </c>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>C/T</t>
+          <t>G/A</t>
         </is>
       </c>
       <c r="AG135" t="inlineStr">
         <is>
-          <t>AATAA</t>
+          <t>TAGGC</t>
         </is>
       </c>
     </row>
@@ -14539,7 +14539,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>intergenic</t>
+          <t>non_coding_transcript_exon,non_coding_transcript</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>PTENP1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>n.948G&gt;A</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -14548,16 +14558,16 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>8.8504133E7</v>
+        <v>3.367655E7</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L136" s="1" t="inlineStr">
@@ -14576,10 +14586,10 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="P136" t="n">
-        <v>16046.0</v>
+        <v>21572.0</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -14587,29 +14597,39 @@
         </is>
       </c>
       <c r="R136" t="n">
-        <v>213.0</v>
+        <v>248.0</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_33676504</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>ENSG00000237984</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>1 of 1</t>
         </is>
       </c>
       <c r="AC136" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="AE136" t="inlineStr">
         <is>
-          <t>AAGTA</t>
+          <t>CATAG</t>
         </is>
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>G/A</t>
+          <t>C/T</t>
         </is>
       </c>
       <c r="AG136" t="inlineStr">
         <is>
-          <t>GTATA</t>
+          <t>AATAA</t>
         </is>
       </c>
     </row>
@@ -14626,26 +14646,16 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>intron</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>LRP2BP</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>c.803+356C&gt;T</t>
+          <t>intergenic</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1.86293654E8</v>
+        <v>8.8504133E7</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -14673,10 +14683,10 @@
         </is>
       </c>
       <c r="O137" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="P137" t="n">
-        <v>100114.0</v>
+        <v>16046.0</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -14684,29 +14694,19 @@
         </is>
       </c>
       <c r="R137" t="n">
-        <v>346.0</v>
+        <v>213.0</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>ENSG00000109771</t>
-        </is>
-      </c>
-      <c r="W137" t="inlineStr">
-        <is>
-          <t>6 of 7</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC137" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>ATGTA</t>
+          <t>AAGTA</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
@@ -14716,7 +14716,7 @@
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>TAGGC</t>
+          <t>GTATA</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>PTEN.off3</t>
+          <t>GRCh37.p13_chr4_186293623</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U139" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC140" t="n">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>PTEN.off2</t>
+          <t>GRCh37.p13_chr9_88504079</t>
         </is>
       </c>
       <c r="AC142" t="n">
@@ -15290,7 +15290,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
@@ -15397,7 +15397,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>PTEN.off1</t>
+          <t>GRCh37.p13_chr9_33676504</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -16933,7 +16933,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -17173,7 +17173,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -17533,7 +17533,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -17653,7 +17653,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -17773,7 +17773,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -18133,7 +18133,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -18253,7 +18253,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -18373,7 +18373,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -18493,7 +18493,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -18853,7 +18853,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -19093,7 +19093,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -19333,7 +19333,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -19573,7 +19573,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -19693,7 +19693,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -19813,7 +19813,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -19933,7 +19933,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -20173,7 +20173,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -20293,7 +20293,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -20418,7 +20418,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -20538,7 +20538,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -20783,7 +20783,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -21143,7 +21143,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -21993,7 +21993,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -22238,7 +22238,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -22478,7 +22478,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -22723,7 +22723,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -22843,7 +22843,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -23083,7 +23083,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -23448,7 +23448,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -23568,7 +23568,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>PTEN.in</t>
+          <t>GRCh37.p13_chr10_89653730</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
